--- a/数据整理/stocks/港股/00168-青岛啤酒股份.xlsx
+++ b/数据整理/stocks/港股/00168-青岛啤酒股份.xlsx
@@ -451,491 +451,661 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>119.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0684</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>009265</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>易方达消费精选股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>103.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>93.78</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.88</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009342</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达优质企业三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>108.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1059</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0303</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4993</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>006923</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>前海开源沪港深非周期性行业股票A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>89.61</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>6.22</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006924</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005612</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实核心优势股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501023</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008286</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达研究精选股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>88.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005142</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>78.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005143</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>78.08</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005875</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达中盘成长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>89.81</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005883</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华宝港股通香港精选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006752</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006753</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009342</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>易方达优质企业三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>010041</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>嘉实港股优势混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>76.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9984</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005612</t>
+          <t>005847</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实核心优势股票</t>
+          <t>富国沪港深业绩驱动混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>95.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8973</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010041</t>
+          <t>900022</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实港股优势混合A</t>
+          <t>中信证券臻选回报两年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>78.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8085</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010042</t>
+          <t>010591</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实港股优势混合C</t>
+          <t>富国中国中小盘混合(QDII)美元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006604</t>
+          <t>100061</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实消费精选股票A</t>
+          <t>富国中国中小盘混合(QDII)人民币</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.31</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7051</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006605</t>
+          <t>900052</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实消费精选股票C</t>
+          <t>中信证券臻选回报两年持有期混合B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.31</t>
+          <t>71.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6614</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006752</t>
+          <t>005612</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合A</t>
+          <t>嘉实核心优势股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>85.85</t>
+          <t>16.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6691</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006753</t>
+          <t>006752</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合C</t>
+          <t>天弘港股通精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>85.85</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>5.33</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006923</t>
+          <t>010042</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
+          <t>嘉实港股优势混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3681</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006924</t>
+          <t>010551</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
+          <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2841</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010551</t>
+          <t>006604</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>淳厚欣颐一年持有期混合</t>
+          <t>嘉实消费精选股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>66.79</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010591</t>
+          <t>009108</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
+          <t>富国红利精选混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>100061</t>
+          <t>009193</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
+          <t>富国红利精选混合（QDII）美元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>160922</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009108</t>
+          <t>900152</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国红利精选混合（QDII）人民币</t>
+          <t>中信证券臻选回报两年持有期混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005847</t>
+          <t>011117</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合A</t>
+          <t>富国沪港深业绩驱动混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>73.53</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1.99</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011117</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合C</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>73.53</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007811</t>
+          <t>006605</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合A</t>
+          <t>嘉实消费精选股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007812</t>
+          <t>006923</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合C</t>
+          <t>前海开源沪港深非周期性行业股票A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009193</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>富国红利精选混合（QDII）美元</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>900022</t>
+          <t>006924</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中信证券臻选回报两年持有期混合A</t>
+          <t>前海开源沪港深非周期性行业股票C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>53.26</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>900052</t>
+          <t>501023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中信证券臻选回报两年持有期混合B</t>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>53.26</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>900152</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中信证券臻选回报两年持有期混合C</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>53.26</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00168-青岛啤酒股份.xlsx
+++ b/数据整理/stocks/港股/00168-青岛啤酒股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,1656 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>219.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.1257</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2092</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5817</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6638</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3557</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2869</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2869</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1663</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8425</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4469</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4469</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8886</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6964</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5060</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4548</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3701</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3689</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3560</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009193</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009108</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>68.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011562</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富稳健盈和一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>68.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00168-青岛啤酒股份.xlsx
+++ b/数据整理/stocks/港股/00168-青岛啤酒股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3690,4 +3691,1352 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>169.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0434</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>126.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>96.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1724</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5170</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2951</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9844</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9844</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5553</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0566</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0566</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009108</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3801</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009193</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3801</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3698</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011923</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011926</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00168-青岛啤酒股份.xlsx
+++ b/数据整理/stocks/港股/00168-青岛啤酒股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5039,4 +5040,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00168-青岛啤酒股份.xlsx
+++ b/数据整理/stocks/港股/00168-青岛啤酒股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5048,7 +5049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5059,17 +5060,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5079,14 +5100,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36.1</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>297.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.8048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5095,14 +5138,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
-      </c>
-      <c r="D3" t="n">
-        <v>42.72</v>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5111,14 +5176,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.97</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5127,13 +5214,1937 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>102.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9586</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6146</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4260</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4260</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>47.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4147</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1262</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5345</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3737</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2598</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1656</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0985</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7887</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5386</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>17.43</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00168-青岛啤酒股份.xlsx
+++ b/数据整理/stocks/港股/00168-青岛啤酒股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7043,7 +7044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7054,17 +7055,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7074,14 +7095,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>51</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.33</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.8967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7090,14 +7133,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.1</v>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7106,14 +7171,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>42.72</v>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5810</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7122,14 +7209,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.97</v>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3762</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -7138,13 +7247,1991 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8412</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8197</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6443</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4021</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2852</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9305</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7227</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6415</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6260</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6046</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6046</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>42.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>17.43</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00168-青岛啤酒股份.xlsx
+++ b/数据整理/stocks/港股/00168-青岛啤酒股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="D2" t="n">
-        <v>37.93</v>
+        <v>53.11</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>50.33</v>
+        <v>37.93</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D4" t="n">
-        <v>36.1</v>
+        <v>50.33</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>42.72</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>14.97</v>
+        <v>42.72</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>17.43</v>
       </c>
     </row>
@@ -583,6 +600,4618 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3949</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1641</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4691</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1515</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1206</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1206</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7983</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7098</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6051</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4546</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3441</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012346</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0317</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0165</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0097</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9965</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9081</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8803</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8081</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>31.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7983</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>28.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7890</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7337</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005543</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华心诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7115</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6009</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5744</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4862</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4862</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国周期优势混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4740</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4559</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012528</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4421</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3767</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>73.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3266</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3209</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012347</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3147</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3093</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2917</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2765</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>66.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>74.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007182</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>66.08</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>66.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011556</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013859</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014042</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银华心诚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015160</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015161</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>24.68</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>73.36</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007183</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014462</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011565</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>富国周期优势混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013860</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>014463</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>015183</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>015184</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合D</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>016289</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>-2.54</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>66.08</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>-0.1387</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2652,7 +7281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4646,7 +9275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5994,7 +10623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7646,7 +12275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8576,7 +13205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
